--- a/src/respository/objname/报警对象实例模板.xlsx
+++ b/src/respository/objname/报警对象实例模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\files\program\docker\debian\express\src\respository\objname\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3602B24F-AF7A-4A9F-B758-C8B9A425638E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472D74A6-D73E-4765-838E-56A4D1B741CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -740,10 +740,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=`uuid_${property.alarmObjname}_${property.alarmProperityName}_${new Date().getTime()}`%&gt;</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%=property.alarmProperityDescription%&gt;</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -756,6 +752,10 @@
   </si>
   <si>
     <t>&lt;%=property.alarmParamDescription%&gt;</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=`uuid_${property.alarmObjname}_${property.alarmParamName}_${new Date().getMilliseconds()}`%&gt;</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1043,13 +1043,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1433,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1516,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1584,28 +1584,28 @@
       <c r="Q1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="27" t="s">
+      <c r="S1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="28" t="s">
+      <c r="W1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1613,11 +1613,11 @@
       <c r="A2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>95</v>
@@ -1638,7 +1638,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>20</v>
@@ -1650,10 +1650,10 @@
         <v>44</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P2" s="25" t="s">
         <v>20</v>
@@ -1739,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1750,7 +1750,7 @@
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="60" customWidth="1"/>
+    <col min="7" max="7" width="105.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="17" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1811,11 +1811,11 @@
       <c r="A2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>95</v>
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="G2" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>100</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>101</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>22</v>
